--- a/STUDIO/org.openl.rules.test/test-resources/functionality/EPBDS-9207_AddAll_Bug.xlsx
+++ b/STUDIO/org.openl.rules.test/test-resources/functionality/EPBDS-9207_AddAll_Bug.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\openl-tablets\STUDIO\org.openl.rules.test\test-resources\functionality\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6206C517-B0E5-49FF-BAB4-F3FFC1E05B18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="25875" windowHeight="11820"/>
+    <workbookView xWindow="405" yWindow="870" windowWidth="19035" windowHeight="12075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>Steps</t>
   </si>
@@ -42,52 +48,19 @@
     <t>Spreadsheet SpreadsheetResult mySpr(Integer[] a)</t>
   </si>
   <si>
-    <t>1, 2, 3, 1, 2, 3, 1, 2, 3</t>
-  </si>
-  <si>
-    <t>= addAll(a,a[1],a)</t>
-  </si>
-  <si>
     <t>Step2</t>
   </si>
   <si>
-    <t>= addAll(a,a,a[1])</t>
-  </si>
-  <si>
     <t>_res_.$Step2</t>
   </si>
   <si>
-    <t>= length(addAll(a,a,a[1]))</t>
-  </si>
-  <si>
     <t>= length(addAll(a,a[1],a))</t>
   </si>
   <si>
-    <t>=  addAll(a,a,a[1])</t>
-  </si>
-  <si>
     <t>=  length(addAll(a,a,a[1]))</t>
   </si>
   <si>
     <t>Step3</t>
-  </si>
-  <si>
-    <t>0.0</t>
-  </si>
-  <si>
-    <t>=  length(addAll(a, new Double(0),a))</t>
-  </si>
-  <si>
-    <t>= addAll(a, new Double(0),a)</t>
-  </si>
-  <si>
-    <t>= addAll((Double[])a, new Double(0),a)</t>
-  </si>
-  <si>
-    <t>= addAll((Double[])a, new Double(0),new Integer(0))</t>
-  </si>
-  <si>
-    <t>= addAll((Double[])a, new Double(0),new Integer(0))[0].getDoubleValue()</t>
   </si>
   <si>
     <t>= addAll((Double[])a, new Double(0),new Integer(0))[0].doubleValue()</t>
@@ -99,12 +72,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1" rgb="000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -128,7 +100,7 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -136,7 +108,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -163,7 +135,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -172,14 +144,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -217,9 +192,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -252,9 +227,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -287,9 +279,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -462,25 +471,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D8:G17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="D8:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" customWidth="true" width="12.140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="7" max="7" width="12.140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="13.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="8" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
         <v>0</v>
       </c>
@@ -488,38 +497,37 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
         <v>2</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="4:6" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="D12" s="0" t="s">
-        <v>17</v>
+    </row>
+    <row r="12" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>12</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="4:6" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
         <v>3</v>
       </c>
       <c r="E14" s="2"/>
-      <c r="F14"/>
-    </row>
-    <row r="15" spans="4:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
         <v>4</v>
       </c>
@@ -527,13 +535,13 @@
         <v>5</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="4:6" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
         <v>4</v>
       </c>
@@ -541,24 +549,24 @@
         <v>5</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="4:6" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
         <v>6</v>
       </c>
-      <c r="E17" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="F17" s="2" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="G17" t="n" s="2">
-        <v>1.0</v>
+      <c r="E17">
+        <v>7</v>
+      </c>
+      <c r="F17" s="2">
+        <v>7</v>
+      </c>
+      <c r="G17" s="2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -567,7 +575,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -579,7 +587,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
